--- a/public/assets/family-mobile.xlsx
+++ b/public/assets/family-mobile.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/lyan/Downloads/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{DDD967D0-43FA-A04C-A21C-285423104027}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{FE507A39-E464-094A-A389-5795054C5B75}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="760" windowWidth="30240" windowHeight="18880" xr2:uid="{A5B48C7D-BD5F-0940-8CF5-C2DDE34DC880}"/>
   </bookViews>
@@ -261,9 +261,6 @@
     <t>1. 表格上所有有颜色的部分均不需要填写，不得修改，已设置公式自动计算；</t>
   </si>
   <si>
-    <t>2. 请填写表格上无颜色部分，可做适度修改，增加未列项，可在无颜色表格中小计前一行无颜色行上插入增加行。</t>
-  </si>
-  <si>
     <t>家庭资产负债表</t>
   </si>
   <si>
@@ -450,6 +447,9 @@
 注： 家庭中夫妻双方一人失业，负债率
 降低20%；一人工作不稳定降低10%</t>
     </r>
+  </si>
+  <si>
+    <t>2. 请填写表格上无颜色部分。不可增加行与列，有空白行的可直接填写内容，没有空白又还有内容需增加的合并在相关项填写。</t>
   </si>
 </sst>
 </file>
@@ -1865,8 +1865,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{CB1DE08D-0394-A642-9C6E-69C43DB3ECE5}">
   <dimension ref="A1:I57"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="L18" sqref="L18"/>
+    <sheetView tabSelected="1" topLeftCell="A23" workbookViewId="0">
+      <selection activeCell="A58" sqref="A58"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16"/>
@@ -2362,7 +2362,7 @@
     </row>
     <row r="25" spans="1:9" ht="17">
       <c r="A25" s="44" t="s">
-        <v>56</v>
+        <v>102</v>
       </c>
       <c r="B25" s="22"/>
       <c r="C25" s="22"/>
@@ -2375,7 +2375,7 @@
     </row>
     <row r="27" spans="1:9" ht="23">
       <c r="A27" s="59" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="B27" s="60"/>
       <c r="C27" s="60"/>
@@ -2388,12 +2388,12 @@
     </row>
     <row r="28" spans="1:9" ht="21">
       <c r="A28" s="62" t="s">
-        <v>58</v>
+        <v>57</v>
       </c>
       <c r="B28" s="62"/>
       <c r="C28" s="62"/>
       <c r="D28" s="63" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
       <c r="E28" s="63"/>
       <c r="F28" s="63"/>
@@ -2419,7 +2419,7 @@
         <v>5</v>
       </c>
       <c r="G29" s="3" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="H29" s="3" t="s">
         <v>6</v>
@@ -2430,64 +2430,64 @@
     </row>
     <row r="30" spans="1:9" ht="18">
       <c r="A30" s="85" t="s">
+        <v>60</v>
+      </c>
+      <c r="B30" s="114" t="s">
         <v>61</v>
-      </c>
-      <c r="B30" s="114" t="s">
-        <v>62</v>
       </c>
       <c r="C30" s="6">
         <v>120</v>
       </c>
       <c r="D30" s="88" t="s">
+        <v>62</v>
+      </c>
+      <c r="E30" s="25" t="s">
         <v>63</v>
-      </c>
-      <c r="E30" s="25" t="s">
-        <v>64</v>
       </c>
       <c r="F30" s="6">
         <v>12</v>
       </c>
       <c r="G30" s="7" t="s">
-        <v>65</v>
+        <v>64</v>
       </c>
       <c r="H30" s="26">
         <f>F54/C54</f>
         <v>0.16901408450704225</v>
       </c>
       <c r="I30" s="27" t="s">
-        <v>66</v>
+        <v>65</v>
       </c>
     </row>
     <row r="31" spans="1:9" ht="18">
       <c r="A31" s="86"/>
       <c r="B31" s="114" t="s">
-        <v>67</v>
+        <v>66</v>
       </c>
       <c r="C31" s="6">
         <v>10</v>
       </c>
       <c r="D31" s="89"/>
       <c r="E31" s="25" t="s">
-        <v>68</v>
+        <v>67</v>
       </c>
       <c r="F31" s="6">
         <v>2</v>
       </c>
       <c r="G31" s="7" t="s">
-        <v>69</v>
+        <v>68</v>
       </c>
       <c r="H31" s="26">
         <f>C52/C53</f>
         <v>0.31638418079096048</v>
       </c>
       <c r="I31" s="27" t="s">
-        <v>70</v>
+        <v>69</v>
       </c>
     </row>
     <row r="32" spans="1:9" ht="18">
       <c r="A32" s="86"/>
       <c r="B32" s="114" t="s">
-        <v>71</v>
+        <v>70</v>
       </c>
       <c r="C32" s="6">
         <v>8</v>
@@ -2500,20 +2500,20 @@
         <v>2</v>
       </c>
       <c r="G32" s="7" t="s">
-        <v>72</v>
+        <v>71</v>
       </c>
       <c r="H32" s="27">
         <f>C46/F53</f>
         <v>3.36</v>
       </c>
       <c r="I32" s="27" t="s">
-        <v>73</v>
+        <v>72</v>
       </c>
     </row>
     <row r="33" spans="1:9" ht="36">
       <c r="A33" s="86"/>
       <c r="B33" s="114" t="s">
-        <v>74</v>
+        <v>73</v>
       </c>
       <c r="C33" s="6">
         <v>1</v>
@@ -2544,17 +2544,17 @@
       <c r="E34" s="25"/>
       <c r="F34" s="6"/>
       <c r="G34" s="94" t="s">
-        <v>102</v>
+        <v>101</v>
       </c>
       <c r="H34" s="95"/>
       <c r="I34" s="96"/>
     </row>
     <row r="35" spans="1:9" ht="18">
       <c r="A35" s="85" t="s">
+        <v>74</v>
+      </c>
+      <c r="B35" s="114" t="s">
         <v>75</v>
-      </c>
-      <c r="B35" s="114" t="s">
-        <v>76</v>
       </c>
       <c r="C35" s="6">
         <v>10</v>
@@ -2604,16 +2604,16 @@
     </row>
     <row r="38" spans="1:9" ht="18">
       <c r="A38" s="85" t="s">
+        <v>76</v>
+      </c>
+      <c r="B38" s="114" t="s">
         <v>77</v>
-      </c>
-      <c r="B38" s="114" t="s">
-        <v>78</v>
       </c>
       <c r="C38" s="6">
         <v>12</v>
       </c>
       <c r="D38" s="88" t="s">
-        <v>79</v>
+        <v>78</v>
       </c>
       <c r="E38" s="25" t="s">
         <v>19</v>
@@ -2628,14 +2628,14 @@
     <row r="39" spans="1:9" ht="18">
       <c r="A39" s="86"/>
       <c r="B39" s="114" t="s">
-        <v>80</v>
+        <v>79</v>
       </c>
       <c r="C39" s="6">
         <v>2</v>
       </c>
       <c r="D39" s="89"/>
       <c r="E39" s="25" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
       <c r="F39" s="6">
         <v>2</v>
@@ -2647,7 +2647,7 @@
     <row r="40" spans="1:9" ht="18">
       <c r="A40" s="86"/>
       <c r="B40" s="114" t="s">
-        <v>82</v>
+        <v>81</v>
       </c>
       <c r="C40" s="6">
         <v>2</v>
@@ -2666,7 +2666,7 @@
     <row r="41" spans="1:9" ht="18">
       <c r="A41" s="86"/>
       <c r="B41" s="114" t="s">
-        <v>83</v>
+        <v>82</v>
       </c>
       <c r="C41" s="6">
         <v>1</v>
@@ -2675,7 +2675,7 @@
       <c r="E41" s="30"/>
       <c r="F41" s="6"/>
       <c r="G41" s="94" t="s">
-        <v>101</v>
+        <v>100</v>
       </c>
       <c r="H41" s="95"/>
       <c r="I41" s="96"/>
@@ -2698,10 +2698,10 @@
     </row>
     <row r="43" spans="1:9" ht="18">
       <c r="A43" s="97" t="s">
+        <v>83</v>
+      </c>
+      <c r="B43" s="114" t="s">
         <v>84</v>
-      </c>
-      <c r="B43" s="114" t="s">
-        <v>85</v>
       </c>
       <c r="C43" s="6">
         <v>2</v>
@@ -2716,7 +2716,7 @@
     <row r="44" spans="1:9" ht="18">
       <c r="A44" s="98"/>
       <c r="B44" s="114" t="s">
-        <v>86</v>
+        <v>85</v>
       </c>
       <c r="C44" s="6">
         <v>2</v>
@@ -2731,7 +2731,7 @@
     <row r="45" spans="1:9" ht="33" customHeight="1">
       <c r="A45" s="98"/>
       <c r="B45" s="114" t="s">
-        <v>87</v>
+        <v>86</v>
       </c>
       <c r="C45" s="6">
         <v>3</v>
@@ -2766,19 +2766,19 @@
     </row>
     <row r="47" spans="1:9" ht="36">
       <c r="A47" s="97" t="s">
+        <v>87</v>
+      </c>
+      <c r="B47" s="116" t="s">
         <v>88</v>
-      </c>
-      <c r="B47" s="116" t="s">
-        <v>89</v>
       </c>
       <c r="C47" s="6">
         <v>2</v>
       </c>
       <c r="D47" s="89" t="s">
+        <v>89</v>
+      </c>
+      <c r="E47" s="25" t="s">
         <v>90</v>
-      </c>
-      <c r="E47" s="25" t="s">
-        <v>91</v>
       </c>
       <c r="F47" s="31">
         <v>2</v>
@@ -2790,20 +2790,20 @@
     <row r="48" spans="1:9" ht="18">
       <c r="A48" s="98"/>
       <c r="B48" s="114" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="C48" s="6">
         <v>3</v>
       </c>
       <c r="D48" s="89"/>
       <c r="E48" s="25" t="s">
-        <v>93</v>
+        <v>92</v>
       </c>
       <c r="F48" s="31">
         <v>2</v>
       </c>
       <c r="G48" s="102" t="s">
-        <v>94</v>
+        <v>93</v>
       </c>
       <c r="H48" s="95"/>
       <c r="I48" s="96"/>
@@ -2830,7 +2830,7 @@
     <row r="50" spans="1:9" ht="18">
       <c r="A50" s="98"/>
       <c r="B50" s="117" t="s">
-        <v>95</v>
+        <v>94</v>
       </c>
       <c r="C50" s="6">
         <v>3</v>
@@ -2868,7 +2868,7 @@
         <v>49</v>
       </c>
       <c r="B52" s="17" t="s">
-        <v>96</v>
+        <v>95</v>
       </c>
       <c r="C52" s="34">
         <f>C37+C42</f>
@@ -2889,14 +2889,14 @@
     <row r="53" spans="1:9" ht="17">
       <c r="A53" s="106"/>
       <c r="B53" s="35" t="s">
-        <v>97</v>
+        <v>96</v>
       </c>
       <c r="C53" s="36">
         <f>C54-F54</f>
         <v>177</v>
       </c>
       <c r="D53" s="110" t="s">
-        <v>98</v>
+        <v>97</v>
       </c>
       <c r="E53" s="111"/>
       <c r="F53" s="36">
@@ -2910,14 +2910,14 @@
     <row r="54" spans="1:9" ht="17">
       <c r="A54" s="107"/>
       <c r="B54" s="3" t="s">
-        <v>99</v>
+        <v>98</v>
       </c>
       <c r="C54" s="37">
         <f>SUM(C34,C37,C42,C46,C51)</f>
         <v>213</v>
       </c>
       <c r="D54" s="112" t="s">
-        <v>100</v>
+        <v>99</v>
       </c>
       <c r="E54" s="113"/>
       <c r="F54" s="37">
@@ -2956,7 +2956,7 @@
     </row>
     <row r="57" spans="1:9" ht="17">
       <c r="A57" s="42" t="s">
-        <v>56</v>
+        <v>102</v>
       </c>
       <c r="B57" s="22"/>
       <c r="C57" s="22"/>

--- a/public/assets/family-mobile.xlsx
+++ b/public/assets/family-mobile.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
   <workbookPr/>
   <bookViews>
-    <workbookView windowWidth="28800" windowHeight="12660"/>
+    <workbookView windowWidth="20080" windowHeight="24520"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -147,14 +147,7 @@
   </si>
   <si>
     <r>
-      <rPr>
-        <b/>
-        <sz val="11"/>
-        <color rgb="FF000000"/>
-        <rFont val="微软雅黑 Light"/>
-        <charset val="134"/>
-      </rPr>
-      <t>财务负担比=年度负债性支出/年度总支出</t>
+      <t>财务负担比=年度负债性支出/年度总收入</t>
     </r>
     <r>
       <rPr>
@@ -402,12 +395,6 @@
   </si>
   <si>
     <r>
-      <rPr>
-        <b/>
-        <sz val="11"/>
-        <rFont val="Microsoft YaHei Light"/>
-        <charset val="134"/>
-      </rPr>
       <t>流动性比率=流动资产/月度支出</t>
     </r>
     <r>
@@ -446,10 +433,10 @@
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="5">
     <numFmt numFmtId="176" formatCode="0.00_ ;[Red]\-0.00\ "/>
-    <numFmt numFmtId="44" formatCode="_(&quot;$&quot;* #,##0.00_);_(&quot;$&quot;* \(#,##0.00\);_(&quot;$&quot;* &quot;-&quot;??_);_(@_)"/>
-    <numFmt numFmtId="42" formatCode="_(&quot;$&quot;* #,##0_);_(&quot;$&quot;* \(#,##0\);_(&quot;$&quot;* &quot;-&quot;_);_(@_)"/>
-    <numFmt numFmtId="177" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
-    <numFmt numFmtId="178" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
+    <numFmt numFmtId="177" formatCode="_(&quot;$&quot;* #,##0_);_(&quot;$&quot;* \(#,##0\);_(&quot;$&quot;* &quot;-&quot;_);_(@_)"/>
+    <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
+    <numFmt numFmtId="178" formatCode="_(&quot;$&quot;* #,##0.00_);_(&quot;$&quot;* \(#,##0.00\);_(&quot;$&quot;* &quot;-&quot;??_);_(@_)"/>
+    <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
   </numFmts>
   <fonts count="33">
     <font>
@@ -537,16 +524,39 @@
       <charset val="134"/>
     </font>
     <font>
-      <u/>
+      <b/>
       <sz val="11"/>
-      <color rgb="FF0000FF"/>
+      <color rgb="FFFFFFFF"/>
       <name val="Calibri"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
+      <b/>
+      <sz val="13"/>
+      <color theme="3"/>
+      <name val="Calibri"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
       <sz val="11"/>
-      <color theme="0"/>
+      <color rgb="FFFF0000"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="18"/>
+      <color theme="3"/>
+      <name val="Calibri"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="1"/>
       <name val="Calibri"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -560,46 +570,23 @@
     </font>
     <font>
       <sz val="11"/>
-      <color theme="1"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF3F3F76"/>
+      <color theme="0"/>
       <name val="Calibri"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
       <b/>
-      <sz val="13"/>
+      <sz val="15"/>
       <color theme="3"/>
       <name val="Calibri"/>
       <charset val="134"/>
       <scheme val="minor"/>
     </font>
     <font>
-      <u/>
+      <i/>
       <sz val="11"/>
-      <color rgb="FF800080"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="18"/>
-      <color theme="3"/>
-      <name val="Calibri"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FFFFFFFF"/>
+      <color rgb="FF7F7F7F"/>
       <name val="Calibri"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -613,24 +600,8 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <b/>
       <sz val="11"/>
-      <color rgb="FFFA7D00"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <i/>
-      <sz val="11"/>
-      <color rgb="FF7F7F7F"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFF0000"/>
+      <color rgb="FF3F3F76"/>
       <name val="Calibri"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -652,15 +623,8 @@
     </font>
     <font>
       <b/>
-      <sz val="15"/>
-      <color theme="3"/>
-      <name val="Calibri"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
       <sz val="11"/>
-      <color rgb="FF9C6500"/>
+      <color rgb="FFFA7D00"/>
       <name val="Calibri"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -674,8 +638,9 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <u/>
       <sz val="11"/>
-      <color rgb="FF9C0006"/>
+      <color rgb="FF0000FF"/>
       <name val="Calibri"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -687,8 +652,30 @@
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C0006"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF800080"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C6500"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
   </fonts>
-  <fills count="49">
+  <fills count="44">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -793,49 +780,127 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor rgb="FFA5A5A5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFCC99"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFFCC"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFF2F2F2"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFC6EFCE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor theme="6" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFCC99"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFA5A5A5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFF2F2F2"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFFFCC"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.799981688894314"/>
+        <fgColor theme="5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFC7CE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -847,25 +912,19 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFC6EFCE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.599993896298105"/>
+        <fgColor theme="7" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFEB9C"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -875,110 +934,8 @@
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFEB9C"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFC7CE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
   </fills>
-  <borders count="55">
+  <borders count="56">
     <border>
       <left/>
       <right/>
@@ -1197,6 +1154,19 @@
       <left style="thin">
         <color rgb="FF000000"/>
       </left>
+      <right style="thin">
+        <color rgb="FF000000"/>
+      </right>
+      <top/>
+      <bottom style="thin">
+        <color auto="1"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FF000000"/>
+      </left>
       <right/>
       <top style="thin">
         <color rgb="FF000000"/>
@@ -1503,6 +1473,39 @@
       <top/>
       <bottom style="thin">
         <color theme="1"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="double">
+        <color rgb="FF3F3F3F"/>
+      </left>
+      <right style="double">
+        <color rgb="FF3F3F3F"/>
+      </right>
+      <top style="double">
+        <color rgb="FF3F3F3F"/>
+      </top>
+      <bottom style="double">
+        <color rgb="FF3F3F3F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4" tint="0.499984740745262"/>
       </bottom>
       <diagonal/>
     </border>
@@ -1522,39 +1525,6 @@
       <diagonal/>
     </border>
     <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="medium">
-        <color theme="4"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="double">
-        <color rgb="FF3F3F3F"/>
-      </left>
-      <right style="double">
-        <color rgb="FF3F3F3F"/>
-      </right>
-      <top style="double">
-        <color rgb="FF3F3F3F"/>
-      </top>
-      <bottom style="double">
-        <color rgb="FF3F3F3F"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="medium">
-        <color theme="4" tint="0.499984740745262"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
       <left style="thin">
         <color rgb="FFB2B2B2"/>
       </left>
@@ -1607,150 +1577,150 @@
   </borders>
   <cellStyleXfs count="49">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="14" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="37" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="44" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="41" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="46" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="36" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="32" fillId="0" borderId="54" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="40" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="47" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="39" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="38" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="45" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="43" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="48" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="29" fillId="34" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="31" fillId="42" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="35" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="30" fillId="0" borderId="53" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="26" fillId="23" borderId="52" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="44" fontId="15" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="24" borderId="51" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="20" borderId="47" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="19" fillId="43" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="39" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="38" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="36" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="37" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="42" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="29" fillId="0" borderId="55" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="35" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="32" fillId="41" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="30" fillId="34" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="40" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="27" fillId="0" borderId="54" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="24" fillId="23" borderId="53" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="178" fontId="18" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="21" borderId="52" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="23" fillId="20" borderId="51" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="22" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="23" fillId="23" borderId="47" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="27" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="26" fillId="23" borderId="51" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="25" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="22" fillId="0" borderId="50" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="24" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="28" fillId="0" borderId="48" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="177" fontId="15" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="42" fontId="15" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="25" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="48" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="178" fontId="15" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="22" borderId="49" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="21" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="0" borderId="49" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="41" fontId="18" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="177" fontId="18" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="31" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="49" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="43" fontId="18" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="18" borderId="48" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="28" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="116">
+  <cellXfs count="118">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
@@ -1863,6 +1833,12 @@
     <xf numFmtId="176" fontId="5" fillId="6" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="3" fillId="12" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="12" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="3" fillId="6" borderId="16" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
@@ -1875,6 +1851,9 @@
     <xf numFmtId="0" fontId="3" fillId="6" borderId="16" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="3" fillId="12" borderId="18" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="7" fillId="13" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
@@ -1890,7 +1869,7 @@
     <xf numFmtId="2" fontId="3" fillId="10" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="10" borderId="18" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="3" fillId="10" borderId="19" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="9" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -1902,7 +1881,7 @@
     <xf numFmtId="2" fontId="3" fillId="14" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="14" borderId="18" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="3" fillId="14" borderId="19" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="9" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -1911,11 +1890,8 @@
     <xf numFmtId="2" fontId="3" fillId="9" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="9" borderId="18" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="19" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
+    <xf numFmtId="0" fontId="3" fillId="9" borderId="19" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="20" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
@@ -1923,6 +1899,9 @@
     <xf numFmtId="0" fontId="4" fillId="0" borderId="21" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="22" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="8" fillId="15" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -1944,39 +1923,39 @@
     <xf numFmtId="0" fontId="3" fillId="16" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="17" borderId="22" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="17" borderId="23" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="3" fillId="17" borderId="23" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="5" fillId="17" borderId="24" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="5" fillId="17" borderId="25" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="5" fillId="17" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="17" borderId="25" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="5" fillId="17" borderId="26" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="17" borderId="27" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="5" fillId="17" borderId="27" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="17" borderId="28" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="3" fillId="17" borderId="28" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="176" fontId="3" fillId="10" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="5" fillId="17" borderId="29" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
+    <xf numFmtId="176" fontId="3" fillId="10" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="5" fillId="17" borderId="30" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="5" fillId="17" borderId="31" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="12" xfId="0" applyBorder="1"/>
     <xf numFmtId="176" fontId="3" fillId="11" borderId="5" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
@@ -1984,19 +1963,19 @@
     <xf numFmtId="0" fontId="4" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="10" fontId="4" fillId="8" borderId="31" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="10" fontId="4" fillId="8" borderId="32" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="49" fontId="4" fillId="8" borderId="31" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="49" fontId="4" fillId="8" borderId="32" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="10" fillId="17" borderId="32" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="10" fillId="17" borderId="33" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="17" borderId="33" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="3" fillId="17" borderId="34" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="17" borderId="24" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="3" fillId="17" borderId="25" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="17" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
@@ -2014,50 +1993,44 @@
     <xf numFmtId="176" fontId="4" fillId="0" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="17" borderId="32" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="12" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
     <xf numFmtId="176" fontId="4" fillId="12" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="10" borderId="34" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="14" borderId="34" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="9" borderId="34" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="17" borderId="35" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="3" fillId="10" borderId="35" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="14" borderId="35" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="9" borderId="35" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="17" borderId="36" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="17" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="36" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="15" borderId="31" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="9" borderId="31" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="8" borderId="31" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="37" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="15" borderId="32" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="9" borderId="32" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="8" borderId="32" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="49" fontId="5" fillId="8" borderId="31" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="49" fontId="5" fillId="8" borderId="32" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="16" borderId="31" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="17" borderId="37" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    <xf numFmtId="0" fontId="3" fillId="16" borderId="32" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="5" fillId="17" borderId="38" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
@@ -2071,24 +2044,27 @@
     <xf numFmtId="0" fontId="5" fillId="17" borderId="41" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="42" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="5" fillId="17" borderId="42" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="43" xfId="0" applyBorder="1"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="44" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="17" borderId="45" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="17" borderId="38" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="44" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="45" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="17" borderId="46" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="42" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="3" fillId="17" borderId="39" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="17" borderId="47" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="43" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="43" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="44" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
   </cellXfs>
@@ -2413,10 +2389,10 @@
   <dimension ref="A1:I57"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="J7" sqref="J7"/>
+      <selection activeCell="A26" sqref="A26"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="11" defaultRowHeight="14.8"/>
+  <sheetFormatPr defaultColWidth="11" defaultRowHeight="17.6"/>
   <cols>
     <col min="3" max="3" width="12.1617647058824" customWidth="1"/>
     <col min="6" max="6" width="12.1617647058824" customWidth="1"/>
@@ -2435,7 +2411,7 @@
       <c r="F1" s="2"/>
       <c r="G1" s="2"/>
       <c r="H1" s="2"/>
-      <c r="I1" s="97"/>
+      <c r="I1" s="99"/>
     </row>
     <row r="2" ht="20.4" spans="1:9">
       <c r="A2" s="3" t="s">
@@ -2448,13 +2424,13 @@
       </c>
       <c r="E2" s="4"/>
       <c r="F2" s="4"/>
-      <c r="G2" s="58" t="s">
+      <c r="G2" s="61" t="s">
         <v>3</v>
       </c>
-      <c r="H2" s="58"/>
-      <c r="I2" s="98"/>
-    </row>
-    <row r="3" ht="16.8" spans="1:9">
+      <c r="H2" s="61"/>
+      <c r="I2" s="100"/>
+    </row>
+    <row r="3" spans="1:9">
       <c r="A3" s="5" t="s">
         <v>4</v>
       </c>
@@ -2466,7 +2442,7 @@
         <v>4</v>
       </c>
       <c r="E3" s="8"/>
-      <c r="F3" s="59" t="s">
+      <c r="F3" s="62" t="s">
         <v>5</v>
       </c>
       <c r="G3" s="20" t="s">
@@ -2475,7 +2451,7 @@
       <c r="H3" s="20" t="s">
         <v>6</v>
       </c>
-      <c r="I3" s="99" t="s">
+      <c r="I3" s="101" t="s">
         <v>7</v>
       </c>
     </row>
@@ -2494,18 +2470,18 @@
         <v>11</v>
       </c>
       <c r="F4" s="11"/>
-      <c r="G4" s="60" t="s">
+      <c r="G4" s="63" t="s">
         <v>12</v>
       </c>
-      <c r="H4" s="61" t="e">
+      <c r="H4" s="64" t="e">
         <f>C21/C22</f>
         <v>#DIV/0!</v>
       </c>
-      <c r="I4" s="100" t="s">
+      <c r="I4" s="102" t="s">
         <v>13</v>
       </c>
     </row>
-    <row r="5" ht="16.8" spans="1:9">
+    <row r="5" spans="1:9">
       <c r="A5" s="13"/>
       <c r="B5" s="10" t="s">
         <v>14</v>
@@ -2516,18 +2492,18 @@
         <v>15</v>
       </c>
       <c r="F5" s="11"/>
-      <c r="G5" s="60" t="s">
+      <c r="G5" s="63" t="s">
         <v>16</v>
       </c>
-      <c r="H5" s="61" t="e">
-        <f>F21/F22</f>
+      <c r="H5" s="64" t="e">
+        <f>F21/C22</f>
         <v>#DIV/0!</v>
       </c>
-      <c r="I5" s="100" t="s">
+      <c r="I5" s="102" t="s">
         <v>17</v>
       </c>
     </row>
-    <row r="6" ht="16.8" spans="1:9">
+    <row r="6" spans="1:9">
       <c r="A6" s="13"/>
       <c r="B6" s="10" t="s">
         <v>18</v>
@@ -2538,38 +2514,38 @@
         <v>19</v>
       </c>
       <c r="F6" s="11"/>
-      <c r="G6" s="60" t="s">
+      <c r="G6" s="63" t="s">
         <v>20</v>
       </c>
-      <c r="H6" s="61" t="e">
+      <c r="H6" s="64" t="e">
         <f>C15/F22</f>
         <v>#DIV/0!</v>
       </c>
-      <c r="I6" s="101" t="s">
+      <c r="I6" s="103" t="s">
         <v>21</v>
       </c>
     </row>
-    <row r="7" ht="16.8" spans="1:9">
+    <row r="7" spans="1:9">
       <c r="A7" s="13"/>
       <c r="B7" s="10" t="s">
         <v>22</v>
       </c>
       <c r="C7" s="11"/>
       <c r="D7" s="15"/>
-      <c r="E7" s="62" t="s">
+      <c r="E7" s="65" t="s">
         <v>23</v>
       </c>
-      <c r="F7" s="63">
+      <c r="F7" s="66">
         <f>SUM(F4:F6)</f>
         <v>0</v>
       </c>
-      <c r="G7" s="64" t="s">
+      <c r="G7" s="67" t="s">
         <v>24</v>
       </c>
-      <c r="H7" s="64"/>
-      <c r="I7" s="102"/>
-    </row>
-    <row r="8" ht="16.8" spans="1:9">
+      <c r="H7" s="67"/>
+      <c r="I7" s="104"/>
+    </row>
+    <row r="8" spans="1:9">
       <c r="A8" s="13"/>
       <c r="B8" s="10"/>
       <c r="C8" s="11"/>
@@ -2580,11 +2556,11 @@
         <v>26</v>
       </c>
       <c r="F8" s="11"/>
-      <c r="G8" s="65" t="s">
+      <c r="G8" s="68" t="s">
         <v>27</v>
       </c>
-      <c r="H8" s="66"/>
-      <c r="I8" s="103"/>
+      <c r="H8" s="69"/>
+      <c r="I8" s="105"/>
     </row>
     <row r="9" ht="17" customHeight="1" spans="1:9">
       <c r="A9" s="13"/>
@@ -2600,11 +2576,11 @@
         <v>28</v>
       </c>
       <c r="F9" s="11"/>
-      <c r="G9" s="67"/>
-      <c r="H9" s="68"/>
-      <c r="I9" s="104"/>
-    </row>
-    <row r="10" ht="16.8" spans="1:9">
+      <c r="G9" s="70"/>
+      <c r="H9" s="71"/>
+      <c r="I9" s="106"/>
+    </row>
+    <row r="10" spans="1:9">
       <c r="A10" s="9" t="s">
         <v>29</v>
       </c>
@@ -2613,18 +2589,18 @@
       </c>
       <c r="C10" s="11"/>
       <c r="D10" s="14"/>
-      <c r="E10" s="62" t="s">
+      <c r="E10" s="65" t="s">
         <v>23</v>
       </c>
-      <c r="F10" s="63">
+      <c r="F10" s="66">
         <f>SUM(F8:F9)</f>
         <v>0</v>
       </c>
-      <c r="G10" s="67"/>
-      <c r="H10" s="68"/>
-      <c r="I10" s="104"/>
-    </row>
-    <row r="11" ht="16.8" spans="1:9">
+      <c r="G10" s="70"/>
+      <c r="H10" s="71"/>
+      <c r="I10" s="106"/>
+    </row>
+    <row r="11" spans="1:9">
       <c r="A11" s="13"/>
       <c r="B11" s="10" t="s">
         <v>30</v>
@@ -2637,9 +2613,9 @@
         <v>32</v>
       </c>
       <c r="F11" s="11"/>
-      <c r="G11" s="67"/>
-      <c r="H11" s="68"/>
-      <c r="I11" s="104"/>
+      <c r="G11" s="70"/>
+      <c r="H11" s="71"/>
+      <c r="I11" s="106"/>
     </row>
     <row r="12" ht="17" customHeight="1" spans="1:9">
       <c r="A12" s="13"/>
@@ -2652,11 +2628,11 @@
         <v>34</v>
       </c>
       <c r="F12" s="11"/>
-      <c r="G12" s="69"/>
-      <c r="H12" s="70"/>
-      <c r="I12" s="105"/>
-    </row>
-    <row r="13" ht="16.8" spans="1:9">
+      <c r="G12" s="72"/>
+      <c r="H12" s="73"/>
+      <c r="I12" s="107"/>
+    </row>
+    <row r="13" spans="1:9">
       <c r="A13" s="13"/>
       <c r="B13" s="10" t="s">
         <v>35</v>
@@ -2667,29 +2643,29 @@
         <v>36</v>
       </c>
       <c r="F13" s="11"/>
-      <c r="G13" s="71" t="s">
+      <c r="G13" s="74" t="s">
         <v>37</v>
       </c>
-      <c r="H13" s="72"/>
-      <c r="I13" s="106"/>
-    </row>
-    <row r="14" ht="16.8" spans="1:9">
+      <c r="H13" s="75"/>
+      <c r="I13" s="108"/>
+    </row>
+    <row r="14" spans="1:9">
       <c r="A14" s="13"/>
       <c r="B14" s="10"/>
       <c r="C14" s="11"/>
       <c r="D14" s="15"/>
-      <c r="E14" s="62" t="s">
+      <c r="E14" s="65" t="s">
         <v>23</v>
       </c>
-      <c r="F14" s="63">
+      <c r="F14" s="66">
         <f>SUM(F11:F13)</f>
         <v>0</v>
       </c>
-      <c r="G14" s="67"/>
-      <c r="H14" s="68"/>
-      <c r="I14" s="104"/>
-    </row>
-    <row r="15" ht="16.8" spans="1:9">
+      <c r="G14" s="70"/>
+      <c r="H14" s="71"/>
+      <c r="I14" s="106"/>
+    </row>
+    <row r="15" spans="1:9">
       <c r="A15" s="18"/>
       <c r="B15" s="16" t="s">
         <v>23</v>
@@ -2705,11 +2681,11 @@
         <v>39</v>
       </c>
       <c r="F15" s="11"/>
-      <c r="G15" s="67"/>
-      <c r="H15" s="68"/>
-      <c r="I15" s="104"/>
-    </row>
-    <row r="16" ht="16.8" spans="1:9">
+      <c r="G15" s="70"/>
+      <c r="H15" s="71"/>
+      <c r="I15" s="106"/>
+    </row>
+    <row r="16" spans="1:9">
       <c r="A16" s="13" t="s">
         <v>40</v>
       </c>
@@ -2722,11 +2698,11 @@
         <v>42</v>
       </c>
       <c r="F16" s="11"/>
-      <c r="G16" s="67"/>
-      <c r="H16" s="68"/>
-      <c r="I16" s="104"/>
-    </row>
-    <row r="17" ht="16.8" spans="1:9">
+      <c r="G16" s="70"/>
+      <c r="H16" s="71"/>
+      <c r="I16" s="106"/>
+    </row>
+    <row r="17" spans="1:9">
       <c r="A17" s="13"/>
       <c r="B17" s="10" t="s">
         <v>43</v>
@@ -2737,11 +2713,11 @@
         <v>44</v>
       </c>
       <c r="F17" s="11"/>
-      <c r="G17" s="69"/>
-      <c r="H17" s="70"/>
-      <c r="I17" s="105"/>
-    </row>
-    <row r="18" ht="16.8" spans="1:9">
+      <c r="G17" s="72"/>
+      <c r="H17" s="73"/>
+      <c r="I17" s="107"/>
+    </row>
+    <row r="18" spans="1:9">
       <c r="A18" s="13"/>
       <c r="B18" s="10" t="s">
         <v>45</v>
@@ -2752,13 +2728,13 @@
         <v>46</v>
       </c>
       <c r="F18" s="11"/>
-      <c r="G18" s="71" t="s">
+      <c r="G18" s="74" t="s">
         <v>47</v>
       </c>
-      <c r="H18" s="72"/>
-      <c r="I18" s="106"/>
-    </row>
-    <row r="19" ht="16.8" spans="1:9">
+      <c r="H18" s="75"/>
+      <c r="I18" s="108"/>
+    </row>
+    <row r="19" spans="1:9">
       <c r="A19" s="13"/>
       <c r="B19" s="10" t="s">
         <v>48</v>
@@ -2769,11 +2745,11 @@
         <v>22</v>
       </c>
       <c r="F19" s="11"/>
-      <c r="G19" s="67"/>
-      <c r="H19" s="68"/>
-      <c r="I19" s="104"/>
-    </row>
-    <row r="20" ht="16.8" spans="1:9">
+      <c r="G19" s="70"/>
+      <c r="H19" s="71"/>
+      <c r="I19" s="106"/>
+    </row>
+    <row r="20" spans="1:9">
       <c r="A20" s="19"/>
       <c r="B20" s="16" t="s">
         <v>23</v>
@@ -2783,18 +2759,18 @@
         <v>0</v>
       </c>
       <c r="D20" s="15"/>
-      <c r="E20" s="62" t="s">
+      <c r="E20" s="65" t="s">
         <v>23</v>
       </c>
-      <c r="F20" s="63">
+      <c r="F20" s="66">
         <f>SUM(F15:F19)</f>
         <v>0</v>
       </c>
-      <c r="G20" s="67"/>
-      <c r="H20" s="68"/>
-      <c r="I20" s="104"/>
-    </row>
-    <row r="21" ht="16.8" spans="1:9">
+      <c r="G20" s="70"/>
+      <c r="H20" s="71"/>
+      <c r="I20" s="106"/>
+    </row>
+    <row r="21" spans="1:9">
       <c r="A21" s="20" t="s">
         <v>49</v>
       </c>
@@ -2809,15 +2785,15 @@
         <v>51</v>
       </c>
       <c r="E21" s="23"/>
-      <c r="F21" s="73">
+      <c r="F21" s="76">
         <f>F7</f>
         <v>0</v>
       </c>
-      <c r="G21" s="67"/>
-      <c r="H21" s="68"/>
-      <c r="I21" s="104"/>
-    </row>
-    <row r="22" ht="16.8" spans="1:9">
+      <c r="G21" s="70"/>
+      <c r="H21" s="71"/>
+      <c r="I21" s="106"/>
+    </row>
+    <row r="22" spans="1:9">
       <c r="A22" s="24"/>
       <c r="B22" s="20" t="s">
         <v>52</v>
@@ -2834,17 +2810,17 @@
         <f>SUM(F7,F10,F14,F20)</f>
         <v>0</v>
       </c>
-      <c r="G22" s="74"/>
-      <c r="H22" s="75"/>
-      <c r="I22" s="107"/>
-    </row>
-    <row r="23" ht="16.8" spans="1:9">
+      <c r="G22" s="77"/>
+      <c r="H22" s="78"/>
+      <c r="I22" s="109"/>
+    </row>
+    <row r="23" spans="1:9">
       <c r="A23" s="26" t="s">
         <v>54</v>
       </c>
-      <c r="I23" s="108"/>
-    </row>
-    <row r="24" ht="16.8" spans="1:9">
+      <c r="I23" s="110"/>
+    </row>
+    <row r="24" spans="1:9">
       <c r="A24" s="26" t="s">
         <v>55</v>
       </c>
@@ -2853,9 +2829,9 @@
       <c r="D24" s="27"/>
       <c r="E24" s="27"/>
       <c r="F24" s="27"/>
-      <c r="I24" s="108"/>
-    </row>
-    <row r="25" ht="16.8" spans="1:9">
+      <c r="I24" s="110"/>
+    </row>
+    <row r="25" spans="1:9">
       <c r="A25" s="28" t="s">
         <v>56</v>
       </c>
@@ -2864,9 +2840,9 @@
       <c r="D25" s="29"/>
       <c r="E25" s="29"/>
       <c r="F25" s="29"/>
-      <c r="G25" s="76"/>
-      <c r="H25" s="76"/>
-      <c r="I25" s="109"/>
+      <c r="G25" s="79"/>
+      <c r="H25" s="79"/>
+      <c r="I25" s="111"/>
     </row>
     <row r="27" ht="23.2" spans="1:9">
       <c r="A27" s="1" t="s">
@@ -2879,7 +2855,7 @@
       <c r="F27" s="2"/>
       <c r="G27" s="2"/>
       <c r="H27" s="2"/>
-      <c r="I27" s="110"/>
+      <c r="I27" s="112"/>
     </row>
     <row r="28" ht="20.4" spans="1:9">
       <c r="A28" s="3" t="s">
@@ -2892,13 +2868,13 @@
       </c>
       <c r="E28" s="4"/>
       <c r="F28" s="4"/>
-      <c r="G28" s="58" t="s">
+      <c r="G28" s="61" t="s">
         <v>3</v>
       </c>
-      <c r="H28" s="58"/>
-      <c r="I28" s="98"/>
-    </row>
-    <row r="29" ht="16.8" spans="1:9">
+      <c r="H28" s="61"/>
+      <c r="I28" s="100"/>
+    </row>
+    <row r="29" spans="1:9">
       <c r="A29" s="5" t="s">
         <v>4</v>
       </c>
@@ -2909,8 +2885,8 @@
       <c r="D29" s="30" t="s">
         <v>4</v>
       </c>
-      <c r="E29" s="77"/>
-      <c r="F29" s="59" t="s">
+      <c r="E29" s="80"/>
+      <c r="F29" s="62" t="s">
         <v>5</v>
       </c>
       <c r="G29" s="20" t="s">
@@ -2923,7 +2899,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="30" ht="17" spans="1:9">
+    <row r="30" spans="1:9">
       <c r="A30" s="31" t="s">
         <v>61</v>
       </c>
@@ -2934,81 +2910,81 @@
       <c r="D30" s="33" t="s">
         <v>63</v>
       </c>
-      <c r="E30" s="78" t="s">
+      <c r="E30" s="81" t="s">
         <v>64</v>
       </c>
       <c r="F30" s="11"/>
-      <c r="G30" s="60" t="s">
+      <c r="G30" s="63" t="s">
         <v>65</v>
       </c>
-      <c r="H30" s="79" t="e">
+      <c r="H30" s="82" t="e">
         <f>F54/C54</f>
         <v>#DIV/0!</v>
       </c>
-      <c r="I30" s="80" t="s">
+      <c r="I30" s="83" t="s">
         <v>66</v>
       </c>
     </row>
-    <row r="31" ht="17" spans="1:9">
+    <row r="31" spans="1:9">
       <c r="A31" s="34"/>
       <c r="B31" s="32" t="s">
         <v>67</v>
       </c>
       <c r="C31" s="11"/>
       <c r="D31" s="35"/>
-      <c r="E31" s="78" t="s">
+      <c r="E31" s="81" t="s">
         <v>68</v>
       </c>
       <c r="F31" s="11"/>
-      <c r="G31" s="60" t="s">
+      <c r="G31" s="63" t="s">
         <v>69</v>
       </c>
-      <c r="H31" s="79" t="e">
+      <c r="H31" s="82" t="e">
         <f>C52/C53</f>
         <v>#DIV/0!</v>
       </c>
-      <c r="I31" s="80" t="s">
+      <c r="I31" s="83" t="s">
         <v>70</v>
       </c>
     </row>
-    <row r="32" ht="17" spans="1:9">
+    <row r="32" spans="1:9">
       <c r="A32" s="34"/>
       <c r="B32" s="32" t="s">
         <v>71</v>
       </c>
       <c r="C32" s="11"/>
       <c r="D32" s="35"/>
-      <c r="E32" s="78" t="s">
+      <c r="E32" s="81" t="s">
         <v>15</v>
       </c>
       <c r="F32" s="11"/>
-      <c r="G32" s="60" t="s">
+      <c r="G32" s="63" t="s">
         <v>72</v>
       </c>
-      <c r="H32" s="80" t="e">
+      <c r="H32" s="83" t="e">
         <f>C46/F53</f>
         <v>#DIV/0!</v>
       </c>
-      <c r="I32" s="80" t="s">
+      <c r="I32" s="83" t="s">
         <v>73</v>
       </c>
     </row>
-    <row r="33" ht="17" spans="1:9">
+    <row r="33" spans="1:9">
       <c r="A33" s="34"/>
       <c r="B33" s="32" t="s">
         <v>74</v>
       </c>
       <c r="C33" s="11"/>
       <c r="D33" s="35"/>
-      <c r="E33" s="78" t="s">
+      <c r="E33" s="81" t="s">
         <v>48</v>
       </c>
       <c r="F33" s="11"/>
-      <c r="G33" s="64" t="s">
+      <c r="G33" s="67" t="s">
         <v>24</v>
       </c>
-      <c r="H33" s="64"/>
-      <c r="I33" s="102"/>
+      <c r="H33" s="67"/>
+      <c r="I33" s="104"/>
     </row>
     <row r="34" ht="17" customHeight="1" spans="1:9">
       <c r="A34" s="36"/>
@@ -3020,15 +2996,15 @@
         <v>0</v>
       </c>
       <c r="D34" s="35"/>
-      <c r="E34" s="78"/>
+      <c r="E34" s="81"/>
       <c r="F34" s="11"/>
-      <c r="G34" s="81" t="s">
+      <c r="G34" s="84" t="s">
         <v>75</v>
       </c>
-      <c r="H34" s="82"/>
-      <c r="I34" s="111"/>
-    </row>
-    <row r="35" ht="17" spans="1:9">
+      <c r="H34" s="85"/>
+      <c r="I34" s="113"/>
+    </row>
+    <row r="35" spans="1:9">
       <c r="A35" s="31" t="s">
         <v>76</v>
       </c>
@@ -3037,26 +3013,26 @@
       </c>
       <c r="C35" s="11"/>
       <c r="D35" s="35"/>
-      <c r="E35" s="78"/>
+      <c r="E35" s="81"/>
       <c r="F35" s="11"/>
-      <c r="G35" s="83"/>
-      <c r="H35" s="84"/>
-      <c r="I35" s="112"/>
-    </row>
-    <row r="36" ht="17" spans="1:9">
+      <c r="G35" s="86"/>
+      <c r="H35" s="87"/>
+      <c r="I35" s="114"/>
+    </row>
+    <row r="36" spans="1:9">
       <c r="A36" s="34"/>
       <c r="B36" s="32" t="s">
         <v>48</v>
       </c>
       <c r="C36" s="11"/>
       <c r="D36" s="35"/>
-      <c r="E36" s="78"/>
+      <c r="E36" s="81"/>
       <c r="F36" s="11"/>
-      <c r="G36" s="83"/>
-      <c r="H36" s="84"/>
-      <c r="I36" s="112"/>
-    </row>
-    <row r="37" ht="17" spans="1:9">
+      <c r="G36" s="86"/>
+      <c r="H36" s="87"/>
+      <c r="I36" s="114"/>
+    </row>
+    <row r="37" spans="1:9">
       <c r="A37" s="36"/>
       <c r="B37" s="37" t="s">
         <v>23</v>
@@ -3066,18 +3042,18 @@
         <v>0</v>
       </c>
       <c r="D37" s="35"/>
-      <c r="E37" s="85" t="s">
+      <c r="E37" s="88" t="s">
         <v>23</v>
       </c>
-      <c r="F37" s="86">
+      <c r="F37" s="89">
         <f>SUM(F30:F36)</f>
         <v>0</v>
       </c>
-      <c r="G37" s="83"/>
-      <c r="H37" s="84"/>
-      <c r="I37" s="112"/>
-    </row>
-    <row r="38" ht="17" spans="1:9">
+      <c r="G37" s="86"/>
+      <c r="H37" s="87"/>
+      <c r="I37" s="114"/>
+    </row>
+    <row r="38" spans="1:9">
       <c r="A38" s="31" t="s">
         <v>78</v>
       </c>
@@ -3085,64 +3061,64 @@
         <v>79</v>
       </c>
       <c r="C38" s="11"/>
-      <c r="D38" s="33" t="s">
+      <c r="D38" s="38" t="s">
         <v>80</v>
       </c>
-      <c r="E38" s="78" t="s">
+      <c r="E38" s="81" t="s">
         <v>19</v>
       </c>
       <c r="F38" s="11"/>
-      <c r="G38" s="83"/>
-      <c r="H38" s="84"/>
-      <c r="I38" s="112"/>
-    </row>
-    <row r="39" ht="17" spans="1:9">
+      <c r="G38" s="86"/>
+      <c r="H38" s="87"/>
+      <c r="I38" s="114"/>
+    </row>
+    <row r="39" spans="1:9">
       <c r="A39" s="34"/>
       <c r="B39" s="32" t="s">
         <v>81</v>
       </c>
       <c r="C39" s="11"/>
-      <c r="D39" s="35"/>
-      <c r="E39" s="78" t="s">
+      <c r="D39" s="39"/>
+      <c r="E39" s="81" t="s">
         <v>82</v>
       </c>
       <c r="F39" s="11"/>
-      <c r="G39" s="83"/>
-      <c r="H39" s="84"/>
-      <c r="I39" s="112"/>
-    </row>
-    <row r="40" ht="17" spans="1:9">
+      <c r="G39" s="86"/>
+      <c r="H39" s="87"/>
+      <c r="I39" s="114"/>
+    </row>
+    <row r="40" spans="1:9">
       <c r="A40" s="34"/>
       <c r="B40" s="32" t="s">
         <v>83</v>
       </c>
       <c r="C40" s="11"/>
-      <c r="D40" s="35"/>
-      <c r="E40" s="78" t="s">
+      <c r="D40" s="39"/>
+      <c r="E40" s="81" t="s">
         <v>48</v>
       </c>
       <c r="F40" s="11"/>
-      <c r="G40" s="83"/>
-      <c r="H40" s="84"/>
-      <c r="I40" s="112"/>
-    </row>
-    <row r="41" ht="17" spans="1:9">
+      <c r="G40" s="86"/>
+      <c r="H40" s="87"/>
+      <c r="I40" s="114"/>
+    </row>
+    <row r="41" spans="1:9">
       <c r="A41" s="34"/>
       <c r="B41" s="32" t="s">
         <v>84</v>
       </c>
       <c r="C41" s="11"/>
-      <c r="D41" s="35"/>
-      <c r="E41" s="87"/>
+      <c r="D41" s="39"/>
+      <c r="E41" s="90"/>
       <c r="F41" s="11"/>
-      <c r="G41" s="81" t="s">
+      <c r="G41" s="84" t="s">
         <v>85</v>
       </c>
-      <c r="H41" s="82"/>
-      <c r="I41" s="111"/>
-    </row>
-    <row r="42" ht="17" spans="1:9">
-      <c r="A42" s="38"/>
+      <c r="H41" s="85"/>
+      <c r="I41" s="113"/>
+    </row>
+    <row r="42" spans="1:9">
+      <c r="A42" s="40"/>
       <c r="B42" s="37" t="s">
         <v>23</v>
       </c>
@@ -3150,56 +3126,56 @@
         <f>SUM(C38:C41)</f>
         <v>0</v>
       </c>
-      <c r="D42" s="35"/>
-      <c r="E42" s="78"/>
+      <c r="D42" s="39"/>
+      <c r="E42" s="81"/>
       <c r="F42" s="11"/>
-      <c r="G42" s="83"/>
-      <c r="H42" s="84"/>
-      <c r="I42" s="112"/>
-    </row>
-    <row r="43" ht="17" spans="1:9">
-      <c r="A43" s="39" t="s">
+      <c r="G42" s="86"/>
+      <c r="H42" s="87"/>
+      <c r="I42" s="114"/>
+    </row>
+    <row r="43" spans="1:9">
+      <c r="A43" s="41" t="s">
         <v>86</v>
       </c>
       <c r="B43" s="32" t="s">
         <v>87</v>
       </c>
       <c r="C43" s="11"/>
-      <c r="D43" s="35"/>
-      <c r="E43" s="78"/>
+      <c r="D43" s="39"/>
+      <c r="E43" s="81"/>
       <c r="F43" s="11"/>
-      <c r="G43" s="83"/>
-      <c r="H43" s="84"/>
-      <c r="I43" s="112"/>
-    </row>
-    <row r="44" ht="17" spans="1:9">
-      <c r="A44" s="40"/>
+      <c r="G43" s="86"/>
+      <c r="H43" s="87"/>
+      <c r="I43" s="114"/>
+    </row>
+    <row r="44" spans="1:9">
+      <c r="A44" s="42"/>
       <c r="B44" s="32" t="s">
         <v>88</v>
       </c>
       <c r="C44" s="11"/>
-      <c r="D44" s="35"/>
-      <c r="E44" s="78"/>
+      <c r="D44" s="39"/>
+      <c r="E44" s="81"/>
       <c r="F44" s="11"/>
-      <c r="G44" s="83"/>
-      <c r="H44" s="84"/>
-      <c r="I44" s="112"/>
+      <c r="G44" s="86"/>
+      <c r="H44" s="87"/>
+      <c r="I44" s="114"/>
     </row>
     <row r="45" ht="33" customHeight="1" spans="1:9">
-      <c r="A45" s="40"/>
+      <c r="A45" s="42"/>
       <c r="B45" s="32" t="s">
         <v>89</v>
       </c>
       <c r="C45" s="11"/>
-      <c r="D45" s="35"/>
-      <c r="E45" s="78"/>
+      <c r="D45" s="39"/>
+      <c r="E45" s="81"/>
       <c r="F45" s="11"/>
-      <c r="G45" s="83"/>
-      <c r="H45" s="84"/>
-      <c r="I45" s="112"/>
-    </row>
-    <row r="46" ht="17" spans="1:9">
-      <c r="A46" s="41"/>
+      <c r="G45" s="86"/>
+      <c r="H45" s="87"/>
+      <c r="I45" s="114"/>
+    </row>
+    <row r="46" spans="1:9">
+      <c r="A46" s="43"/>
       <c r="B46" s="37" t="s">
         <v>23</v>
       </c>
@@ -3207,84 +3183,84 @@
         <f>SUM(C43:C45)</f>
         <v>0</v>
       </c>
-      <c r="D46" s="35"/>
-      <c r="E46" s="85" t="s">
+      <c r="D46" s="44"/>
+      <c r="E46" s="88" t="s">
         <v>23</v>
       </c>
-      <c r="F46" s="86">
+      <c r="F46" s="89">
         <f>SUM(F38:F45)</f>
         <v>0</v>
       </c>
-      <c r="G46" s="83"/>
-      <c r="H46" s="84"/>
-      <c r="I46" s="112"/>
-    </row>
-    <row r="47" ht="17" spans="1:9">
-      <c r="A47" s="39" t="s">
+      <c r="G46" s="86"/>
+      <c r="H46" s="87"/>
+      <c r="I46" s="114"/>
+    </row>
+    <row r="47" spans="1:9">
+      <c r="A47" s="41" t="s">
         <v>90</v>
       </c>
-      <c r="B47" s="42" t="s">
+      <c r="B47" s="45" t="s">
         <v>91</v>
       </c>
       <c r="C47" s="11"/>
       <c r="D47" s="35" t="s">
         <v>92</v>
       </c>
-      <c r="E47" s="78" t="s">
+      <c r="E47" s="81" t="s">
         <v>93</v>
       </c>
-      <c r="F47" s="88"/>
-      <c r="G47" s="83"/>
-      <c r="H47" s="84"/>
-      <c r="I47" s="112"/>
-    </row>
-    <row r="48" ht="17" spans="1:9">
-      <c r="A48" s="40"/>
+      <c r="F47" s="91"/>
+      <c r="G47" s="86"/>
+      <c r="H47" s="87"/>
+      <c r="I47" s="114"/>
+    </row>
+    <row r="48" spans="1:9">
+      <c r="A48" s="42"/>
       <c r="B48" s="32" t="s">
         <v>94</v>
       </c>
       <c r="C48" s="11"/>
       <c r="D48" s="35"/>
-      <c r="E48" s="78" t="s">
+      <c r="E48" s="81" t="s">
         <v>95</v>
       </c>
-      <c r="F48" s="88"/>
-      <c r="G48" s="89" t="s">
+      <c r="F48" s="91"/>
+      <c r="G48" s="84" t="s">
         <v>96</v>
       </c>
-      <c r="H48" s="82"/>
-      <c r="I48" s="111"/>
-    </row>
-    <row r="49" ht="17" spans="1:9">
-      <c r="A49" s="40"/>
+      <c r="H48" s="85"/>
+      <c r="I48" s="113"/>
+    </row>
+    <row r="49" spans="1:9">
+      <c r="A49" s="42"/>
       <c r="B49" s="32" t="s">
         <v>18</v>
       </c>
       <c r="C49" s="11"/>
       <c r="D49" s="35"/>
-      <c r="E49" s="78" t="s">
+      <c r="E49" s="81" t="s">
         <v>48</v>
       </c>
-      <c r="F49" s="88"/>
-      <c r="G49" s="83"/>
-      <c r="H49" s="84"/>
-      <c r="I49" s="112"/>
-    </row>
-    <row r="50" ht="17" spans="1:9">
-      <c r="A50" s="40"/>
-      <c r="B50" s="43" t="s">
+      <c r="F49" s="91"/>
+      <c r="G49" s="86"/>
+      <c r="H49" s="87"/>
+      <c r="I49" s="114"/>
+    </row>
+    <row r="50" spans="1:9">
+      <c r="A50" s="42"/>
+      <c r="B50" s="46" t="s">
         <v>97</v>
       </c>
       <c r="C50" s="11"/>
       <c r="D50" s="35"/>
-      <c r="E50" s="90"/>
-      <c r="F50" s="88"/>
-      <c r="G50" s="83"/>
-      <c r="H50" s="84"/>
-      <c r="I50" s="112"/>
-    </row>
-    <row r="51" ht="17" spans="1:9">
-      <c r="A51" s="44"/>
+      <c r="E50" s="92"/>
+      <c r="F50" s="91"/>
+      <c r="G50" s="86"/>
+      <c r="H50" s="87"/>
+      <c r="I50" s="114"/>
+    </row>
+    <row r="51" spans="1:9">
+      <c r="A51" s="47"/>
       <c r="B51" s="37" t="s">
         <v>23</v>
       </c>
@@ -3292,85 +3268,85 @@
         <f>SUM(C47:C50)</f>
         <v>0</v>
       </c>
-      <c r="D51" s="45"/>
-      <c r="E51" s="85" t="s">
+      <c r="D51" s="48"/>
+      <c r="E51" s="88" t="s">
         <v>23</v>
       </c>
-      <c r="F51" s="91">
+      <c r="F51" s="93">
         <f>SUM(F47:F50)</f>
         <v>0</v>
       </c>
-      <c r="G51" s="83"/>
-      <c r="H51" s="84"/>
-      <c r="I51" s="112"/>
-    </row>
-    <row r="52" ht="16.8" spans="1:9">
+      <c r="G51" s="86"/>
+      <c r="H51" s="87"/>
+      <c r="I51" s="114"/>
+    </row>
+    <row r="52" spans="1:9">
       <c r="A52" s="24" t="s">
         <v>49</v>
       </c>
       <c r="B52" s="23" t="s">
         <v>98</v>
       </c>
-      <c r="C52" s="46">
+      <c r="C52" s="49">
         <f>C37+C42</f>
         <v>0</v>
       </c>
-      <c r="D52" s="47" t="s">
+      <c r="D52" s="50" t="s">
         <v>53</v>
       </c>
-      <c r="E52" s="92"/>
-      <c r="F52" s="46">
+      <c r="E52" s="94"/>
+      <c r="F52" s="49">
         <f>F22</f>
         <v>0</v>
       </c>
-      <c r="G52" s="83"/>
-      <c r="H52" s="84"/>
-      <c r="I52" s="112"/>
-    </row>
-    <row r="53" ht="16.8" spans="1:9">
-      <c r="A53" s="48"/>
-      <c r="B53" s="49" t="s">
+      <c r="G52" s="86"/>
+      <c r="H52" s="87"/>
+      <c r="I52" s="114"/>
+    </row>
+    <row r="53" spans="1:9">
+      <c r="A53" s="51"/>
+      <c r="B53" s="52" t="s">
         <v>99</v>
       </c>
-      <c r="C53" s="50">
+      <c r="C53" s="53">
         <f>C54-F54</f>
         <v>0</v>
       </c>
-      <c r="D53" s="51" t="s">
+      <c r="D53" s="54" t="s">
         <v>100</v>
       </c>
-      <c r="E53" s="93"/>
-      <c r="F53" s="50">
+      <c r="E53" s="95"/>
+      <c r="F53" s="53">
         <f>(F52/12)</f>
         <v>0</v>
       </c>
-      <c r="G53" s="83"/>
-      <c r="H53" s="84"/>
-      <c r="I53" s="112"/>
-    </row>
-    <row r="54" ht="16.8" spans="1:9">
-      <c r="A54" s="52"/>
+      <c r="G53" s="86"/>
+      <c r="H53" s="87"/>
+      <c r="I53" s="114"/>
+    </row>
+    <row r="54" spans="1:9">
+      <c r="A54" s="55"/>
       <c r="B54" s="20" t="s">
         <v>101</v>
       </c>
-      <c r="C54" s="53">
+      <c r="C54" s="56">
         <f>SUM(C34,C37,C42,C46,C51)</f>
         <v>0</v>
       </c>
-      <c r="D54" s="54" t="s">
+      <c r="D54" s="57" t="s">
         <v>102</v>
       </c>
-      <c r="E54" s="94"/>
-      <c r="F54" s="53">
+      <c r="E54" s="96"/>
+      <c r="F54" s="56">
         <f>SUM(F51,F46,F37)</f>
         <v>0</v>
       </c>
-      <c r="G54" s="95"/>
-      <c r="H54" s="96"/>
-      <c r="I54" s="113"/>
-    </row>
-    <row r="55" ht="16.8" spans="1:9">
-      <c r="A55" s="55" t="s">
+      <c r="G54" s="97"/>
+      <c r="H54" s="98"/>
+      <c r="I54" s="115"/>
+    </row>
+    <row r="55" spans="1:9">
+      <c r="A55" s="58" t="s">
         <v>54</v>
       </c>
       <c r="B55" s="27"/>
@@ -3380,10 +3356,10 @@
       <c r="F55" s="27"/>
       <c r="G55" s="27"/>
       <c r="H55" s="27"/>
-      <c r="I55" s="114"/>
-    </row>
-    <row r="56" ht="16.8" spans="1:9">
-      <c r="A56" s="56" t="s">
+      <c r="I55" s="116"/>
+    </row>
+    <row r="56" spans="1:9">
+      <c r="A56" s="59" t="s">
         <v>55</v>
       </c>
       <c r="B56" s="27"/>
@@ -3393,10 +3369,10 @@
       <c r="F56" s="27"/>
       <c r="G56" s="27"/>
       <c r="H56" s="27"/>
-      <c r="I56" s="114"/>
-    </row>
-    <row r="57" ht="16.8" spans="1:9">
-      <c r="A57" s="57" t="s">
+      <c r="I56" s="116"/>
+    </row>
+    <row r="57" spans="1:9">
+      <c r="A57" s="60" t="s">
         <v>56</v>
       </c>
       <c r="B57" s="29"/>
@@ -3406,7 +3382,7 @@
       <c r="F57" s="29"/>
       <c r="G57" s="29"/>
       <c r="H57" s="29"/>
-      <c r="I57" s="115"/>
+      <c r="I57" s="117"/>
     </row>
   </sheetData>
   <mergeCells count="42">
